--- a/prep/_pressures/matrizjunio2023presiones.xlsb.xlsx
+++ b/prep/_pressures/matrizjunio2023presiones.xlsb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vapiz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\prep\_pressures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A23190-C3E4-4B0A-9FAC-75DA88D4DE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE73C41C-447C-4A94-B549-6C87BA4C1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,30 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -535,6 +511,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,9 +853,9 @@
   <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -868,51 +868,51 @@
     <row r="1" spans="1:35" ht="58.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="32" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32" t="s">
+      <c r="R1" s="41"/>
+      <c r="S1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="29" t="s">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="31"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
     </row>
     <row r="2" spans="1:35" ht="305.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -1023,7 +1023,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="8">
+      <c r="C3" s="15">
         <v>2</v>
       </c>
       <c r="D3" s="4">
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="8">
+      <c r="H3" s="15">
         <v>3</v>
       </c>
       <c r="I3" s="4">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="8">
+      <c r="L3" s="15">
         <v>2</v>
       </c>
       <c r="M3" s="4">
@@ -1057,8 +1057,8 @@
         <v>2</v>
       </c>
       <c r="P3" s="4"/>
-      <c r="Q3" s="8">
-        <v>2</v>
+      <c r="Q3" s="15">
+        <v>3</v>
       </c>
       <c r="R3" s="4">
         <v>2</v>
@@ -1104,7 +1104,7 @@
       <c r="AI3" s="27"/>
     </row>
     <row r="4" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1175,7 +1175,7 @@
       <c r="AI4" s="27"/>
     </row>
     <row r="5" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="AI5" s="27"/>
     </row>
     <row r="6" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="41"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="AI6" s="27"/>
     </row>
     <row r="7" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="42"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="AI7" s="27"/>
     </row>
     <row r="8" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1435,7 +1435,7 @@
       <c r="AI8" s="27"/>
     </row>
     <row r="9" spans="1:35" s="19" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="17" t="s">
         <v>63</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="AI9" s="27"/>
     </row>
     <row r="10" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="45"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="G11" s="5">
         <v>3</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="14">
         <v>3</v>
       </c>
       <c r="I11" s="5"/>
@@ -1623,8 +1623,8 @@
       <c r="L11" s="5">
         <v>2</v>
       </c>
-      <c r="M11" s="9">
-        <v>2</v>
+      <c r="M11" s="14">
+        <v>3</v>
       </c>
       <c r="N11" s="5">
         <v>2</v>
@@ -1637,11 +1637,11 @@
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="9">
-        <v>1</v>
-      </c>
-      <c r="T11" s="9">
-        <v>1</v>
+      <c r="S11" s="14">
+        <v>2</v>
+      </c>
+      <c r="T11" s="14">
+        <v>2</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5">
@@ -1684,13 +1684,13 @@
       <c r="AI11" s="27"/>
     </row>
     <row r="12" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="20">
         <v>2</v>
       </c>
       <c r="D12" s="17">
@@ -1705,8 +1705,8 @@
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="18">
-        <v>2</v>
+      <c r="H12" s="20">
+        <v>3</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -1755,7 +1755,7 @@
       <c r="AI12" s="27"/>
     </row>
     <row r="13" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="44"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1806,14 +1806,14 @@
       <c r="AI13" s="27"/>
     </row>
     <row r="14" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="17">
         <v>1</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="20">
         <v>1</v>
       </c>
       <c r="E14" s="17">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="18">
+      <c r="H14" s="20">
         <v>2</v>
       </c>
       <c r="I14" s="17"/>
@@ -1841,11 +1841,11 @@
       <c r="Q14" s="17">
         <v>3</v>
       </c>
-      <c r="R14" s="18">
-        <v>2</v>
-      </c>
-      <c r="S14" s="18">
-        <v>1</v>
+      <c r="R14" s="20">
+        <v>3</v>
+      </c>
+      <c r="S14" s="20">
+        <v>2</v>
       </c>
       <c r="T14" s="17">
         <v>2</v>
@@ -1881,7 +1881,7 @@
       <c r="AI14" s="27"/>
     </row>
     <row r="15" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="44"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="AI15" s="27"/>
     </row>
     <row r="16" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1936,15 +1936,15 @@
       <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="18">
-        <v>2</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17">
-        <v>2</v>
-      </c>
-      <c r="H16" s="18">
-        <v>2</v>
+      <c r="E16" s="20">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
+        <v>2</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="4"/>
@@ -2003,46 +2003,46 @@
       <c r="AI16" s="27"/>
     </row>
     <row r="17" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>3</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
-        <v>2</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5">
-        <v>2</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5">
-        <v>2</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5">
-        <v>1</v>
-      </c>
-      <c r="R17" s="5"/>
+      <c r="C17" s="20">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20">
+        <v>3</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17">
+        <v>2</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17">
+        <v>2</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="17"/>
       <c r="S17" s="5">
         <v>2</v>
       </c>
@@ -2074,32 +2074,32 @@
       <c r="AI17" s="27"/>
     </row>
     <row r="18" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="41"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
-        <v>2</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5">
-        <v>1</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="17">
+        <v>2</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17">
+        <v>1</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="5">
         <v>1</v>
       </c>
@@ -2125,43 +2125,43 @@
       <c r="AI18" s="27"/>
     </row>
     <row r="19" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="41"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="9">
-        <v>2</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5">
-        <v>1</v>
-      </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5">
-        <v>3</v>
-      </c>
-      <c r="R19" s="5">
-        <v>2</v>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>2</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="20">
+        <v>2</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="17">
+        <v>1</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17">
+        <v>1</v>
+      </c>
+      <c r="O19" s="17">
+        <v>1</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17">
+        <v>3</v>
+      </c>
+      <c r="R19" s="20">
+        <v>3</v>
       </c>
       <c r="S19" s="5">
         <v>1</v>
@@ -2200,30 +2200,30 @@
       <c r="AI19" s="27"/>
     </row>
     <row r="20" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="41"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5">
-        <v>1</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17">
+        <v>1</v>
+      </c>
+      <c r="O20" s="17">
+        <v>1</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5">
@@ -2247,42 +2247,42 @@
       <c r="AI20" s="27"/>
     </row>
     <row r="21" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="42"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <v>2</v>
-      </c>
-      <c r="H21" s="9">
-        <v>2</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5">
-        <v>1</v>
-      </c>
-      <c r="P21" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="20">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20">
+        <v>2</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20">
+        <v>2</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="17">
+        <v>1</v>
+      </c>
+      <c r="M21" s="17">
+        <v>1</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17">
+        <v>1</v>
+      </c>
+      <c r="P21" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5">
@@ -2423,7 +2423,7 @@
       <c r="AI22" s="27"/>
     </row>
     <row r="23" spans="1:35" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="32" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2458,8 +2458,8 @@
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="9">
-        <v>2</v>
+      <c r="P23" s="14">
+        <v>3</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -2504,7 +2504,7 @@
       <c r="AI23" s="27"/>
     </row>
     <row r="24" spans="1:35" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="42"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="G25" s="4">
         <v>1</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="15">
         <v>3</v>
       </c>
       <c r="I25" s="4">
@@ -2629,16 +2629,16 @@
       <c r="P25" s="4">
         <v>1</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="15">
         <v>3</v>
       </c>
       <c r="R25" s="4">
         <v>2</v>
       </c>
-      <c r="S25" s="8">
-        <v>1</v>
-      </c>
-      <c r="T25" s="8">
+      <c r="S25" s="15">
+        <v>2</v>
+      </c>
+      <c r="T25" s="15">
         <v>2</v>
       </c>
       <c r="U25" s="4"/>
@@ -2687,13 +2687,13 @@
       <c r="E26" s="5">
         <v>3</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="14">
         <v>2</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="14">
         <v>3</v>
       </c>
       <c r="I26" s="5">
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="5"/>
-      <c r="O26" s="9">
+      <c r="O26" s="14">
         <v>2</v>
       </c>
       <c r="P26" s="5"/>
@@ -2716,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="R26" s="5"/>
-      <c r="S26" s="9">
-        <v>1</v>
-      </c>
-      <c r="T26" s="9">
+      <c r="S26" s="14">
+        <v>2</v>
+      </c>
+      <c r="T26" s="14">
         <v>2</v>
       </c>
       <c r="U26" s="5"/>
@@ -2749,7 +2749,7 @@
       <c r="AI26" s="27"/>
     </row>
     <row r="27" spans="1:35" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2762,8 +2762,8 @@
       <c r="G27" s="4">
         <v>1</v>
       </c>
-      <c r="H27" s="8">
-        <v>1</v>
+      <c r="H27" s="15">
+        <v>2</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
@@ -2772,7 +2772,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="8">
+      <c r="N27" s="15">
         <v>1</v>
       </c>
       <c r="O27" s="4"/>
@@ -2786,8 +2786,8 @@
       <c r="S27" s="4">
         <v>2</v>
       </c>
-      <c r="T27" s="8">
-        <v>1</v>
+      <c r="T27" s="15">
+        <v>2</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="17"/>
@@ -2814,7 +2814,7 @@
       <c r="AI27" s="27"/>
     </row>
     <row r="28" spans="1:35" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="44"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
@@ -2825,8 +2825,8 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="H28" s="8">
-        <v>1</v>
+      <c r="H28" s="15">
+        <v>2</v>
       </c>
       <c r="I28" s="4">
         <v>1</v>
@@ -2835,7 +2835,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="8">
+      <c r="N28" s="15">
         <v>1</v>
       </c>
       <c r="O28" s="4"/>
@@ -2849,8 +2849,8 @@
       <c r="S28" s="4">
         <v>2</v>
       </c>
-      <c r="T28" s="8">
-        <v>1</v>
+      <c r="T28" s="15">
+        <v>2</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="17"/>
@@ -2877,7 +2877,7 @@
       <c r="AI28" s="27"/>
     </row>
     <row r="29" spans="1:35" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="45"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2892,8 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="H29" s="8">
-        <v>2</v>
+      <c r="H29" s="15">
+        <v>3</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2968,16 +2968,16 @@
       <c r="D30" s="5">
         <v>2</v>
       </c>
-      <c r="E30" s="9">
-        <v>2</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>3</v>
-      </c>
-      <c r="H30" s="9">
+      <c r="E30" s="14">
+        <v>2</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14">
+        <v>3</v>
+      </c>
+      <c r="H30" s="14">
         <v>3</v>
       </c>
       <c r="I30" s="5"/>
@@ -3140,7 +3140,7 @@
       <c r="AI31" s="27"/>
     </row>
     <row r="32" spans="1:35" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3201,7 +3201,7 @@
       <c r="AI32" s="27"/>
     </row>
     <row r="33" spans="1:35" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="38"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="5" t="s">
         <v>46</v>
       </c>
@@ -3288,7 +3288,7 @@
       <c r="AI33" s="27"/>
     </row>
     <row r="34" spans="1:35" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="38"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="5" t="s">
         <v>47</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="AI34" s="27"/>
     </row>
     <row r="35" spans="1:35" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="38"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="AI35" s="27"/>
     </row>
     <row r="36" spans="1:35" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="38"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="5" t="s">
         <v>49</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="AI36" s="27"/>
     </row>
     <row r="37" spans="1:35" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="38"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="11" t="s">
         <v>48</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="AI37" s="27"/>
     </row>
     <row r="38" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="38"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="5" t="s">
         <v>52</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="AI38" s="27"/>
     </row>
     <row r="39" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="38"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="AI39" s="27"/>
     </row>
     <row r="40" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="38"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="5" t="s">
         <v>53</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="AI40" s="27"/>
     </row>
     <row r="41" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="39"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="5" t="s">
         <v>54</v>
       </c>
@@ -3996,6 +3996,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="V1:AI1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -4003,12 +4009,6 @@
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="V1:AI1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/prep/_pressures/matrizjunio2023presiones.xlsb.xlsx
+++ b/prep/_pressures/matrizjunio2023presiones.xlsb.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\prep\_pressures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FDD8E8-F0D0-4E66-8BD7-44AF6772D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08E903A-6309-4120-8EF5-C1323BC8B1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="matrizB" sheetId="4" r:id="rId2"/>
+    <sheet name="matriz" sheetId="2" r:id="rId3"/>
+    <sheet name="categoryB" sheetId="5" r:id="rId4"/>
+    <sheet name="category" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="142">
   <si>
     <t>goal</t>
   </si>
@@ -253,6 +257,204 @@
   </si>
   <si>
     <t>Falta red municipal CC (ADAPTABILIDAD)</t>
+  </si>
+  <si>
+    <t>Seagrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidal flats </t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>ECO</t>
+  </si>
+  <si>
+    <t>LIV</t>
+  </si>
+  <si>
+    <t>LSP</t>
+  </si>
+  <si>
+    <t>ICO</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>HAB</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>cw_conquimica</t>
+  </si>
+  <si>
+    <t>cw_conpatogenos</t>
+  </si>
+  <si>
+    <t>cw_confan</t>
+  </si>
+  <si>
+    <t>cw_connutrientesmar</t>
+  </si>
+  <si>
+    <t>cw_conbasura</t>
+  </si>
+  <si>
+    <t>cw_conindustrial</t>
+  </si>
+  <si>
+    <t>sp_invasoras</t>
+  </si>
+  <si>
+    <t>des_habitat_marino</t>
+  </si>
+  <si>
+    <t>des_habitat_costero</t>
+  </si>
+  <si>
+    <t>traf_maritimo</t>
+  </si>
+  <si>
+    <t>den_cencultivo</t>
+  </si>
+  <si>
+    <t>pes_ilegal</t>
+  </si>
+  <si>
+    <t>inst_artesdepesca</t>
+  </si>
+  <si>
+    <t>cc_anomaliast</t>
+  </si>
+  <si>
+    <t>cc_sataragonita</t>
+  </si>
+  <si>
+    <t>cc_cotaind</t>
+  </si>
+  <si>
+    <t>pres_n_proyexplora</t>
+  </si>
+  <si>
+    <t>pres_n_opa</t>
+  </si>
+  <si>
+    <t>pres_n_ocomunitarias</t>
+  </si>
+  <si>
+    <t>pres_n_fipa</t>
+  </si>
+  <si>
+    <t>pres_n_explora</t>
+  </si>
+  <si>
+    <t>pres_s_muniverde</t>
+  </si>
+  <si>
+    <t>pres_lim_playas</t>
+  </si>
+  <si>
+    <t>pres_in_municipales</t>
+  </si>
+  <si>
+    <t>pres_scam</t>
+  </si>
+  <si>
+    <t>pres_com_ccee</t>
+  </si>
+  <si>
+    <t>pres_com_prd</t>
+  </si>
+  <si>
+    <t>pres_con_eerr</t>
+  </si>
+  <si>
+    <t>pres_est_rrrdd</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>ecological</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>pollution</t>
+  </si>
+  <si>
+    <t>alien_species</t>
+  </si>
+  <si>
+    <t>habitat_destruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fishing_pressure </t>
+  </si>
+  <si>
+    <t>climate_change</t>
+  </si>
+  <si>
+    <t>Marismas y humedales</t>
+  </si>
+  <si>
+    <t>Playas y dunas</t>
+  </si>
+  <si>
+    <t>element_name</t>
+  </si>
+  <si>
+    <t>element_nam</t>
+  </si>
+  <si>
+    <t>turismo_cost</t>
+  </si>
+  <si>
+    <t>Bosques y matorrales</t>
+  </si>
+  <si>
+    <t>SPP</t>
+  </si>
+  <si>
+    <t>Pastos</t>
+  </si>
+  <si>
+    <t>Marismas y Humedales</t>
+  </si>
+  <si>
+    <t>Playas y Dunas</t>
+  </si>
+  <si>
+    <t>Bosques y Matorrales</t>
   </si>
 </sst>
 </file>
@@ -425,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -466,6 +668,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -508,13 +723,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,10 +1061,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23:S24"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -847,49 +1077,49 @@
     <row r="1" spans="1:33" ht="58.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="24" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="26"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="33"/>
     </row>
     <row r="2" spans="1:33" ht="305.60000000000002" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -913,7 +1143,7 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -931,7 +1161,7 @@
       <c r="M2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="28" t="s">
         <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -1073,7 +1303,7 @@
       <c r="AG3" s="21"/>
     </row>
     <row r="4" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1137,12 +1367,12 @@
       </c>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
       <c r="AG4" s="21"/>
     </row>
     <row r="5" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1198,14 +1428,14 @@
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38">
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26">
         <v>2</v>
       </c>
       <c r="AG5" s="21"/>
     </row>
     <row r="6" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="33"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1253,12 +1483,12 @@
       </c>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
       <c r="AG6" s="21"/>
     </row>
     <row r="7" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="4" t="s">
         <v>55</v>
       </c>
@@ -1308,14 +1538,14 @@
       <c r="AD7" s="10">
         <v>2</v>
       </c>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38">
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26">
         <v>2</v>
       </c>
       <c r="AG7" s="21"/>
     </row>
     <row r="8" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1389,12 +1619,12 @@
       </c>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
       <c r="AG8" s="21"/>
     </row>
     <row r="9" spans="1:33" s="14" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="12" t="s">
         <v>61</v>
       </c>
@@ -1466,16 +1696,16 @@
       <c r="AD9" s="15">
         <v>2</v>
       </c>
-      <c r="AE9" s="39">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="39">
+      <c r="AE9" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="27">
         <v>1</v>
       </c>
       <c r="AG9" s="21"/>
     </row>
     <row r="10" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="37"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -1541,8 +1771,8 @@
       </c>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
       <c r="AG10" s="21"/>
     </row>
     <row r="11" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -1633,7 +1863,7 @@
       <c r="AG11" s="21"/>
     </row>
     <row r="12" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="42" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1702,7 +1932,7 @@
       <c r="AG12" s="21"/>
     </row>
     <row r="13" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="36"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1751,7 +1981,7 @@
       <c r="AG13" s="21"/>
     </row>
     <row r="14" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="36"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1824,7 +2054,7 @@
       <c r="AG14" s="21"/>
     </row>
     <row r="15" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="36"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1869,7 +2099,7 @@
       <c r="AG15" s="21"/>
     </row>
     <row r="16" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="37"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1942,7 +2172,7 @@
       <c r="AG16" s="21"/>
     </row>
     <row r="17" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2011,7 +2241,7 @@
       <c r="AG17" s="21"/>
     </row>
     <row r="18" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="33"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -2060,7 +2290,7 @@
       <c r="AG18" s="21"/>
     </row>
     <row r="19" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
@@ -2133,7 +2363,7 @@
       <c r="AG19" s="21"/>
     </row>
     <row r="20" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="33"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
@@ -2178,7 +2408,7 @@
       <c r="AG20" s="21"/>
     </row>
     <row r="21" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="34"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2576,7 @@
       <c r="AG22" s="21"/>
     </row>
     <row r="23" spans="1:33" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="39" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2421,7 +2651,7 @@
       <c r="AG23" s="21"/>
     </row>
     <row r="24" spans="1:33" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="34"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
@@ -2660,7 +2890,7 @@
       <c r="AG26" s="21"/>
     </row>
     <row r="27" spans="1:33" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="42" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2723,7 +2953,7 @@
       <c r="AG27" s="21"/>
     </row>
     <row r="28" spans="1:33" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="36"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>32</v>
       </c>
@@ -2784,7 +3014,7 @@
       <c r="AG28" s="21"/>
     </row>
     <row r="29" spans="1:33" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="37"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
@@ -2856,8 +3086,8 @@
       <c r="AD29" s="15">
         <v>1</v>
       </c>
-      <c r="AE29" s="39"/>
-      <c r="AF29" s="39">
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27">
         <v>1</v>
       </c>
       <c r="AG29" s="21"/>
@@ -2937,10 +3167,10 @@
       <c r="AD30" s="10">
         <v>2</v>
       </c>
-      <c r="AE30" s="38">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="38">
+      <c r="AE30" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="26">
         <v>2</v>
       </c>
       <c r="AG30" s="21"/>
@@ -2986,7 +3216,7 @@
       <c r="N31" s="11">
         <v>2</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="29">
         <v>1</v>
       </c>
       <c r="P31" s="11">
@@ -3028,16 +3258,16 @@
       <c r="AD31" s="15">
         <v>1</v>
       </c>
-      <c r="AE31" s="39">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="39">
+      <c r="AE31" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="27">
         <v>1</v>
       </c>
       <c r="AG31" s="21"/>
     </row>
     <row r="32" spans="1:33" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -3089,14 +3319,14 @@
       </c>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38">
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26">
         <v>1</v>
       </c>
       <c r="AG32" s="21"/>
     </row>
     <row r="33" spans="1:33" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="30"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
@@ -3174,14 +3404,14 @@
       <c r="AD33" s="10">
         <v>1</v>
       </c>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38">
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26">
         <v>1</v>
       </c>
       <c r="AG33" s="21"/>
     </row>
     <row r="34" spans="1:33" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="30"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
@@ -3255,14 +3485,14 @@
       <c r="AD34" s="10">
         <v>1</v>
       </c>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38">
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26">
         <v>1</v>
       </c>
       <c r="AG34" s="21"/>
     </row>
     <row r="35" spans="1:33" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="30"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="4" t="s">
         <v>50</v>
       </c>
@@ -3296,7 +3526,7 @@
       <c r="N35" s="10">
         <v>1</v>
       </c>
-      <c r="O35" s="42">
+      <c r="O35" s="30">
         <v>2</v>
       </c>
       <c r="P35" s="10">
@@ -3336,14 +3566,14 @@
       <c r="AD35" s="10">
         <v>1</v>
       </c>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="38">
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26">
         <v>1</v>
       </c>
       <c r="AG35" s="21"/>
     </row>
     <row r="36" spans="1:33" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="30"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
@@ -3421,16 +3651,16 @@
       <c r="AD36" s="10">
         <v>2</v>
       </c>
-      <c r="AE36" s="38">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="38">
+      <c r="AE36" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="26">
         <v>2</v>
       </c>
       <c r="AG36" s="21"/>
     </row>
     <row r="37" spans="1:33" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="30"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="9" t="s">
         <v>48</v>
       </c>
@@ -3514,16 +3744,16 @@
       <c r="AD37" s="10">
         <v>2</v>
       </c>
-      <c r="AE37" s="38">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="38">
+      <c r="AE37" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="26">
         <v>2</v>
       </c>
       <c r="AG37" s="21"/>
     </row>
     <row r="38" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="30"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="4" t="s">
         <v>52</v>
       </c>
@@ -3605,16 +3835,16 @@
       <c r="AD38" s="10">
         <v>2</v>
       </c>
-      <c r="AE38" s="38">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="38">
+      <c r="AE38" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="26">
         <v>2</v>
       </c>
       <c r="AG38" s="21"/>
     </row>
     <row r="39" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="30"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="4" t="s">
         <v>51</v>
       </c>
@@ -3694,14 +3924,14 @@
       <c r="AD39" s="10">
         <v>1</v>
       </c>
-      <c r="AE39" s="38"/>
-      <c r="AF39" s="38">
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26">
         <v>1</v>
       </c>
       <c r="AG39" s="21"/>
     </row>
     <row r="40" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="30"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
       </c>
@@ -3781,14 +4011,14 @@
       <c r="AD40" s="10">
         <v>1</v>
       </c>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38">
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26">
         <v>1</v>
       </c>
       <c r="AG40" s="21"/>
     </row>
     <row r="41" spans="1:33" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="31"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
       </c>
@@ -3846,8 +4076,8 @@
       <c r="AD41" s="10">
         <v>1</v>
       </c>
-      <c r="AE41" s="38"/>
-      <c r="AF41" s="38">
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26">
         <v>1</v>
       </c>
       <c r="AG41" s="21"/>
@@ -3877,4 +4107,6330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCB754E-A64B-41EB-896D-91EC268D80F0}">
+  <dimension ref="A1:AF36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="41.4609375" customWidth="1"/>
+    <col min="4" max="32" width="4.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="11">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="11">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="12">
+        <v>1</v>
+      </c>
+      <c r="U2" s="12">
+        <v>2</v>
+      </c>
+      <c r="V2" s="12">
+        <v>1</v>
+      </c>
+      <c r="W2" s="12">
+        <v>2</v>
+      </c>
+      <c r="X2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>3</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10">
+        <v>3</v>
+      </c>
+      <c r="P3" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>1</v>
+      </c>
+      <c r="R3" s="10">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10">
+        <v>2</v>
+      </c>
+      <c r="V3" s="10">
+        <v>1</v>
+      </c>
+      <c r="W3" s="10">
+        <v>2</v>
+      </c>
+      <c r="X3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10">
+        <v>3</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10">
+        <v>2</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10">
+        <v>3</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10">
+        <v>3</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10">
+        <v>2</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10">
+        <v>3</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10">
+        <v>2</v>
+      </c>
+      <c r="V5" s="10">
+        <v>1</v>
+      </c>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10">
+        <v>2</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10">
+        <v>3</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10">
+        <v>1</v>
+      </c>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A7" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>3</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15">
+        <v>2</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15">
+        <v>1</v>
+      </c>
+      <c r="O7" s="15">
+        <v>1</v>
+      </c>
+      <c r="P7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>2</v>
+      </c>
+      <c r="R7" s="15">
+        <v>1</v>
+      </c>
+      <c r="S7" s="15">
+        <v>1</v>
+      </c>
+      <c r="T7" s="15">
+        <v>1</v>
+      </c>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15">
+        <v>1</v>
+      </c>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A8" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15">
+        <v>3</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15">
+        <v>2</v>
+      </c>
+      <c r="K8" s="15">
+        <v>2</v>
+      </c>
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15">
+        <v>1</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15">
+        <v>2</v>
+      </c>
+      <c r="R8" s="15">
+        <v>1</v>
+      </c>
+      <c r="S8" s="15">
+        <v>3</v>
+      </c>
+      <c r="T8" s="15">
+        <v>1</v>
+      </c>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15">
+        <v>2</v>
+      </c>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>3</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="11">
+        <v>3</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="15">
+        <v>1</v>
+      </c>
+      <c r="U9" s="15">
+        <v>2</v>
+      </c>
+      <c r="V9" s="15">
+        <v>1</v>
+      </c>
+      <c r="W9" s="15">
+        <v>2</v>
+      </c>
+      <c r="X9" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="10">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="10">
+        <v>2</v>
+      </c>
+      <c r="R10" s="10">
+        <v>2</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>2</v>
+      </c>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12">
+        <v>2</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
+        <v>2</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12">
+        <v>2</v>
+      </c>
+      <c r="R11" s="12">
+        <v>2</v>
+      </c>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12">
+        <v>2</v>
+      </c>
+      <c r="X11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12">
+        <v>1</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A13" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="15">
+        <v>2</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
+        <v>3</v>
+      </c>
+      <c r="P13" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>2</v>
+      </c>
+      <c r="R13" s="12">
+        <v>2</v>
+      </c>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12">
+        <v>2</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12">
+        <v>2</v>
+      </c>
+      <c r="X13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A14" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12">
+        <v>1</v>
+      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A15" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12">
+        <v>1</v>
+      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12">
+        <v>2</v>
+      </c>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>3</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12">
+        <v>2</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
+        <v>2</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12">
+        <v>1</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="4">
+        <v>2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>2</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <v>2</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12">
+        <v>2</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
+        <v>1</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A18" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="15">
+        <v>2</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12">
+        <v>1</v>
+      </c>
+      <c r="M18" s="12">
+        <v>1</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12">
+        <v>3</v>
+      </c>
+      <c r="P18" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <v>2</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4">
+        <v>2</v>
+      </c>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4">
+        <v>2</v>
+      </c>
+      <c r="X18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12">
+        <v>1</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15">
+        <v>2</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12">
+        <v>1</v>
+      </c>
+      <c r="N20" s="12">
+        <v>1</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4">
+        <v>2</v>
+      </c>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15">
+        <v>2</v>
+      </c>
+      <c r="H21" s="15">
+        <v>3</v>
+      </c>
+      <c r="I21" s="15">
+        <v>2</v>
+      </c>
+      <c r="J21" s="15">
+        <v>2</v>
+      </c>
+      <c r="K21" s="15">
+        <v>2</v>
+      </c>
+      <c r="L21" s="15">
+        <v>2</v>
+      </c>
+      <c r="M21" s="15">
+        <v>2</v>
+      </c>
+      <c r="N21" s="15">
+        <v>2</v>
+      </c>
+      <c r="O21" s="15">
+        <v>2</v>
+      </c>
+      <c r="P21" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>2</v>
+      </c>
+      <c r="R21" s="15">
+        <v>2</v>
+      </c>
+      <c r="S21" s="15">
+        <v>2</v>
+      </c>
+      <c r="T21" s="12">
+        <v>2</v>
+      </c>
+      <c r="U21" s="12">
+        <v>1</v>
+      </c>
+      <c r="V21" s="12">
+        <v>2</v>
+      </c>
+      <c r="W21" s="12">
+        <v>1</v>
+      </c>
+      <c r="X21" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A22" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>3</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10">
+        <v>2</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10">
+        <v>3</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10">
+        <v>2</v>
+      </c>
+      <c r="T22" s="4">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10">
+        <v>2</v>
+      </c>
+      <c r="N23" s="10">
+        <v>1</v>
+      </c>
+      <c r="O23" s="10">
+        <v>1</v>
+      </c>
+      <c r="P23" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10">
+        <v>2</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
+        <v>1</v>
+      </c>
+      <c r="X23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <v>2</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="11">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>2</v>
+      </c>
+      <c r="R24" s="11">
+        <v>2</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12">
+        <v>2</v>
+      </c>
+      <c r="V24" s="12">
+        <v>1</v>
+      </c>
+      <c r="W24" s="12">
+        <v>2</v>
+      </c>
+      <c r="X24" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="10">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="10">
+        <v>2</v>
+      </c>
+      <c r="R25" s="10">
+        <v>2</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4">
+        <v>2</v>
+      </c>
+      <c r="X25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A26" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="11">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3">
+        <v>2</v>
+      </c>
+      <c r="P26" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2</v>
+      </c>
+      <c r="R26" s="11">
+        <v>2</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12">
+        <v>2</v>
+      </c>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12">
+        <v>2</v>
+      </c>
+      <c r="X26" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A27" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="11">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3">
+        <v>2</v>
+      </c>
+      <c r="P27" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2</v>
+      </c>
+      <c r="R27" s="11">
+        <v>2</v>
+      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12">
+        <v>2</v>
+      </c>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12">
+        <v>2</v>
+      </c>
+      <c r="X27" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A28" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>3</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11">
+        <v>1</v>
+      </c>
+      <c r="K28" s="11">
+        <v>2</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11">
+        <v>1</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11">
+        <v>2</v>
+      </c>
+      <c r="P28" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>2</v>
+      </c>
+      <c r="R28" s="11">
+        <v>1</v>
+      </c>
+      <c r="S28" s="11">
+        <v>1</v>
+      </c>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15">
+        <v>1</v>
+      </c>
+      <c r="V28" s="15">
+        <v>1</v>
+      </c>
+      <c r="W28" s="15">
+        <v>2</v>
+      </c>
+      <c r="X28" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>2</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>3</v>
+      </c>
+      <c r="H29" s="10">
+        <v>3</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10">
+        <v>3</v>
+      </c>
+      <c r="L29" s="10">
+        <v>1</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1</v>
+      </c>
+      <c r="N29" s="10">
+        <v>2</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10">
+        <v>1</v>
+      </c>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10">
+        <v>1</v>
+      </c>
+      <c r="T29" s="10">
+        <v>1</v>
+      </c>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10">
+        <v>1</v>
+      </c>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="45">
+        <v>2</v>
+      </c>
+      <c r="E30" s="45">
+        <v>1</v>
+      </c>
+      <c r="F30" s="45">
+        <v>2</v>
+      </c>
+      <c r="G30" s="45">
+        <v>2</v>
+      </c>
+      <c r="H30" s="45">
+        <v>3</v>
+      </c>
+      <c r="I30" s="45">
+        <v>1</v>
+      </c>
+      <c r="J30" s="45">
+        <v>1</v>
+      </c>
+      <c r="K30" s="45">
+        <v>3</v>
+      </c>
+      <c r="L30" s="45">
+        <v>2</v>
+      </c>
+      <c r="M30" s="45">
+        <v>1</v>
+      </c>
+      <c r="N30" s="45">
+        <v>2</v>
+      </c>
+      <c r="O30" s="46">
+        <v>1</v>
+      </c>
+      <c r="P30" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="45">
+        <v>1</v>
+      </c>
+      <c r="R30" s="45">
+        <v>1</v>
+      </c>
+      <c r="S30" s="45">
+        <v>1</v>
+      </c>
+      <c r="T30" s="47">
+        <v>2</v>
+      </c>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47">
+        <v>1</v>
+      </c>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="47">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="47">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="47">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="49">
+        <v>2</v>
+      </c>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49">
+        <v>1</v>
+      </c>
+      <c r="G31" s="49">
+        <v>2</v>
+      </c>
+      <c r="H31" s="49">
+        <v>3</v>
+      </c>
+      <c r="I31" s="49">
+        <v>1</v>
+      </c>
+      <c r="J31" s="49">
+        <v>1</v>
+      </c>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49">
+        <v>1</v>
+      </c>
+      <c r="M31" s="49">
+        <v>1</v>
+      </c>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49">
+        <v>3</v>
+      </c>
+      <c r="P31" s="49">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="49">
+        <v>1</v>
+      </c>
+      <c r="R31" s="49">
+        <v>1</v>
+      </c>
+      <c r="S31" s="49">
+        <v>1</v>
+      </c>
+      <c r="T31" s="49">
+        <v>1</v>
+      </c>
+      <c r="U31" s="8">
+        <v>2</v>
+      </c>
+      <c r="V31" s="8">
+        <v>1</v>
+      </c>
+      <c r="W31" s="8">
+        <v>2</v>
+      </c>
+      <c r="X31" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="49">
+        <v>2</v>
+      </c>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49">
+        <v>2</v>
+      </c>
+      <c r="G32" s="49">
+        <v>1</v>
+      </c>
+      <c r="H32" s="49">
+        <v>3</v>
+      </c>
+      <c r="I32" s="49">
+        <v>1</v>
+      </c>
+      <c r="J32" s="49">
+        <v>2</v>
+      </c>
+      <c r="K32" s="49">
+        <v>1</v>
+      </c>
+      <c r="L32" s="49">
+        <v>1</v>
+      </c>
+      <c r="M32" s="49">
+        <v>2</v>
+      </c>
+      <c r="N32" s="49">
+        <v>1</v>
+      </c>
+      <c r="O32" s="49">
+        <v>3</v>
+      </c>
+      <c r="P32" s="49">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="49">
+        <v>2</v>
+      </c>
+      <c r="R32" s="49">
+        <v>2</v>
+      </c>
+      <c r="S32" s="49">
+        <v>1</v>
+      </c>
+      <c r="T32" s="51">
+        <v>1</v>
+      </c>
+      <c r="U32" s="8">
+        <v>2</v>
+      </c>
+      <c r="V32" s="8">
+        <v>1</v>
+      </c>
+      <c r="W32" s="8">
+        <v>2</v>
+      </c>
+      <c r="X32" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A33" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="49">
+        <v>2</v>
+      </c>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49">
+        <v>1</v>
+      </c>
+      <c r="G33" s="49">
+        <v>1</v>
+      </c>
+      <c r="H33" s="49">
+        <v>3</v>
+      </c>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49">
+        <v>2</v>
+      </c>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49">
+        <v>1</v>
+      </c>
+      <c r="M33" s="49">
+        <v>1</v>
+      </c>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49">
+        <v>2</v>
+      </c>
+      <c r="R33" s="49">
+        <v>2</v>
+      </c>
+      <c r="S33" s="49">
+        <v>1</v>
+      </c>
+      <c r="T33" s="49">
+        <v>1</v>
+      </c>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8">
+        <v>1</v>
+      </c>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="49">
+        <v>2</v>
+      </c>
+      <c r="E34" s="49">
+        <v>1</v>
+      </c>
+      <c r="F34" s="49">
+        <v>2</v>
+      </c>
+      <c r="G34" s="49">
+        <v>2</v>
+      </c>
+      <c r="H34" s="49">
+        <v>3</v>
+      </c>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49">
+        <v>3</v>
+      </c>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49">
+        <v>1</v>
+      </c>
+      <c r="O34" s="52"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49">
+        <v>2</v>
+      </c>
+      <c r="R34" s="49">
+        <v>1</v>
+      </c>
+      <c r="S34" s="49">
+        <v>3</v>
+      </c>
+      <c r="T34" s="49">
+        <v>1</v>
+      </c>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8">
+        <v>2</v>
+      </c>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A35" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49">
+        <v>2</v>
+      </c>
+      <c r="H35" s="49">
+        <v>2</v>
+      </c>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49">
+        <v>3</v>
+      </c>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49">
+        <v>2</v>
+      </c>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49">
+        <v>3</v>
+      </c>
+      <c r="T35" s="49">
+        <v>1</v>
+      </c>
+      <c r="U35" s="8">
+        <v>1</v>
+      </c>
+      <c r="V35" s="8">
+        <v>1</v>
+      </c>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>3</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="49">
+        <v>1</v>
+      </c>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49">
+        <v>1</v>
+      </c>
+      <c r="H36" s="49">
+        <v>1</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49">
+        <v>3</v>
+      </c>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49">
+        <v>1</v>
+      </c>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49">
+        <v>3</v>
+      </c>
+      <c r="T36" s="49">
+        <v>1</v>
+      </c>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8">
+        <v>1</v>
+      </c>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD36" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE36" s="50">
+        <v>2</v>
+      </c>
+      <c r="AF36" s="50">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C7CBF5-0B34-478C-8629-516C0CDE9EC3}">
+  <dimension ref="A1:AG41"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="41.4609375" customWidth="1"/>
+    <col min="4" max="33" width="4.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="11">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="12">
+        <v>1</v>
+      </c>
+      <c r="V2" s="12">
+        <v>2</v>
+      </c>
+      <c r="W2" s="12">
+        <v>1</v>
+      </c>
+      <c r="X2" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>3</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2</v>
+      </c>
+      <c r="R3" s="10">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10">
+        <v>1</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10">
+        <v>2</v>
+      </c>
+      <c r="W3" s="10">
+        <v>1</v>
+      </c>
+      <c r="X3" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>3</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10">
+        <v>3</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10">
+        <v>1</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10">
+        <v>2</v>
+      </c>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10">
+        <v>2</v>
+      </c>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10">
+        <v>3</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10">
+        <v>2</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10">
+        <v>3</v>
+      </c>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10">
+        <v>2</v>
+      </c>
+      <c r="W5" s="10">
+        <v>1</v>
+      </c>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
+        <v>3</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
+        <v>3</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10">
+        <v>2</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
+        <v>3</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10">
+        <v>1</v>
+      </c>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>3</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15">
+        <v>2</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15">
+        <v>1</v>
+      </c>
+      <c r="P7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>1</v>
+      </c>
+      <c r="R7" s="15">
+        <v>2</v>
+      </c>
+      <c r="S7" s="15">
+        <v>1</v>
+      </c>
+      <c r="T7" s="15">
+        <v>1</v>
+      </c>
+      <c r="U7" s="15">
+        <v>1</v>
+      </c>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15">
+        <v>1</v>
+      </c>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2</v>
+      </c>
+      <c r="I8" s="15">
+        <v>3</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15">
+        <v>2</v>
+      </c>
+      <c r="L8" s="15">
+        <v>2</v>
+      </c>
+      <c r="M8" s="15">
+        <v>1</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15">
+        <v>1</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15">
+        <v>2</v>
+      </c>
+      <c r="S8" s="15">
+        <v>1</v>
+      </c>
+      <c r="T8" s="15">
+        <v>3</v>
+      </c>
+      <c r="U8" s="15">
+        <v>1</v>
+      </c>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15">
+        <v>2</v>
+      </c>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11">
+        <v>3</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <v>3</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11">
+        <v>1</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11">
+        <v>1</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="15">
+        <v>1</v>
+      </c>
+      <c r="V9" s="15">
+        <v>2</v>
+      </c>
+      <c r="W9" s="15">
+        <v>1</v>
+      </c>
+      <c r="X9" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
+      <c r="L10" s="10">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="10">
+        <v>2</v>
+      </c>
+      <c r="S10" s="10">
+        <v>2</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
+        <v>2</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>3</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12">
+        <v>2</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12">
+        <v>2</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12">
+        <v>2</v>
+      </c>
+      <c r="S11" s="12">
+        <v>2</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="15">
+        <v>2</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>3</v>
+      </c>
+      <c r="R13" s="15">
+        <v>2</v>
+      </c>
+      <c r="S13" s="12">
+        <v>2</v>
+      </c>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12">
+        <v>2</v>
+      </c>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12">
+        <v>1</v>
+      </c>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12">
+        <v>1</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12">
+        <v>1</v>
+      </c>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12">
+        <v>2</v>
+      </c>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15">
+        <v>3</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12">
+        <v>2</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12">
+        <v>2</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="4">
+        <v>2</v>
+      </c>
+      <c r="S16" s="4">
+        <v>2</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
+        <v>2</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A18" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="15">
+        <v>2</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12">
+        <v>1</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12">
+        <v>1</v>
+      </c>
+      <c r="N18" s="12">
+        <v>1</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>3</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4">
+        <v>2</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4">
+        <v>2</v>
+      </c>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12">
+        <v>1</v>
+      </c>
+      <c r="N19" s="12">
+        <v>1</v>
+      </c>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>2</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15">
+        <v>2</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12">
+        <v>1</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12">
+        <v>1</v>
+      </c>
+      <c r="O20" s="12">
+        <v>1</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4">
+        <v>1</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4">
+        <v>2</v>
+      </c>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15">
+        <v>2</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>2</v>
+      </c>
+      <c r="I21" s="15">
+        <v>3</v>
+      </c>
+      <c r="J21" s="15">
+        <v>2</v>
+      </c>
+      <c r="K21" s="15">
+        <v>2</v>
+      </c>
+      <c r="L21" s="15">
+        <v>2</v>
+      </c>
+      <c r="M21" s="15">
+        <v>2</v>
+      </c>
+      <c r="N21" s="15">
+        <v>2</v>
+      </c>
+      <c r="O21" s="15">
+        <v>2</v>
+      </c>
+      <c r="P21" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>2</v>
+      </c>
+      <c r="R21" s="15">
+        <v>2</v>
+      </c>
+      <c r="S21" s="15">
+        <v>2</v>
+      </c>
+      <c r="T21" s="15">
+        <v>2</v>
+      </c>
+      <c r="U21" s="12">
+        <v>2</v>
+      </c>
+      <c r="V21" s="12">
+        <v>1</v>
+      </c>
+      <c r="W21" s="12">
+        <v>2</v>
+      </c>
+      <c r="X21" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>3</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10">
+        <v>2</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10">
+        <v>3</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10">
+        <v>2</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4">
+        <v>1</v>
+      </c>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>2</v>
+      </c>
+      <c r="L23" s="10">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10">
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
+        <v>2</v>
+      </c>
+      <c r="O23" s="10">
+        <v>1</v>
+      </c>
+      <c r="P23" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>1</v>
+      </c>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10">
+        <v>2</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
+        <v>1</v>
+      </c>
+      <c r="X23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2</v>
+      </c>
+      <c r="R24" s="11">
+        <v>2</v>
+      </c>
+      <c r="S24" s="11">
+        <v>2</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12">
+        <v>2</v>
+      </c>
+      <c r="W24" s="12">
+        <v>1</v>
+      </c>
+      <c r="X24" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="10">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10">
+        <v>2</v>
+      </c>
+      <c r="S25" s="10">
+        <v>2</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4">
+        <v>1</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A26" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="11">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="11">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
+        <v>2</v>
+      </c>
+      <c r="S26" s="11">
+        <v>2</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12">
+        <v>2</v>
+      </c>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A27" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="11">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3">
+        <v>2</v>
+      </c>
+      <c r="S27" s="11">
+        <v>2</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12">
+        <v>2</v>
+      </c>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A28" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1</v>
+      </c>
+      <c r="I28" s="11">
+        <v>3</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11">
+        <v>1</v>
+      </c>
+      <c r="L28" s="11">
+        <v>2</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>2</v>
+      </c>
+      <c r="R28" s="11">
+        <v>2</v>
+      </c>
+      <c r="S28" s="11">
+        <v>1</v>
+      </c>
+      <c r="T28" s="11">
+        <v>1</v>
+      </c>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15">
+        <v>1</v>
+      </c>
+      <c r="W28" s="15">
+        <v>1</v>
+      </c>
+      <c r="X28" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>2</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10">
+        <v>3</v>
+      </c>
+      <c r="I29" s="10">
+        <v>3</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10">
+        <v>3</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1</v>
+      </c>
+      <c r="N29" s="10">
+        <v>1</v>
+      </c>
+      <c r="O29" s="10">
+        <v>2</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10">
+        <v>1</v>
+      </c>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10">
+        <v>1</v>
+      </c>
+      <c r="U29" s="10">
+        <v>1</v>
+      </c>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10">
+        <v>1</v>
+      </c>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11">
+        <v>3</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1</v>
+      </c>
+      <c r="K30" s="11">
+        <v>2</v>
+      </c>
+      <c r="L30" s="11">
+        <v>2</v>
+      </c>
+      <c r="M30" s="11">
+        <v>2</v>
+      </c>
+      <c r="N30" s="11">
+        <v>1</v>
+      </c>
+      <c r="O30" s="11">
+        <v>2</v>
+      </c>
+      <c r="P30" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>1</v>
+      </c>
+      <c r="R30" s="11">
+        <v>1</v>
+      </c>
+      <c r="S30" s="11">
+        <v>1</v>
+      </c>
+      <c r="T30" s="11">
+        <v>1</v>
+      </c>
+      <c r="U30" s="15">
+        <v>2</v>
+      </c>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15">
+        <v>1</v>
+      </c>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10">
+        <v>1</v>
+      </c>
+      <c r="S31" s="10">
+        <v>1</v>
+      </c>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10">
+        <v>1</v>
+      </c>
+      <c r="X31" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>2</v>
+      </c>
+      <c r="G32" s="10">
+        <v>2</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10">
+        <v>3</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10">
+        <v>2</v>
+      </c>
+      <c r="L32" s="10">
+        <v>1</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10">
+        <v>2</v>
+      </c>
+      <c r="O32" s="10">
+        <v>1</v>
+      </c>
+      <c r="P32" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>3</v>
+      </c>
+      <c r="R32" s="10">
+        <v>3</v>
+      </c>
+      <c r="S32" s="10">
+        <v>3</v>
+      </c>
+      <c r="T32" s="10">
+        <v>2</v>
+      </c>
+      <c r="U32" s="22">
+        <v>1</v>
+      </c>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10">
+        <v>1</v>
+      </c>
+      <c r="X32" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10">
+        <v>2</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10">
+        <v>3</v>
+      </c>
+      <c r="J33" s="10">
+        <v>1</v>
+      </c>
+      <c r="K33" s="10">
+        <v>1</v>
+      </c>
+      <c r="L33" s="10">
+        <v>1</v>
+      </c>
+      <c r="M33" s="10">
+        <v>1</v>
+      </c>
+      <c r="N33" s="10">
+        <v>2</v>
+      </c>
+      <c r="O33" s="10">
+        <v>1</v>
+      </c>
+      <c r="P33" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>2</v>
+      </c>
+      <c r="R33" s="10">
+        <v>2</v>
+      </c>
+      <c r="S33" s="10">
+        <v>2</v>
+      </c>
+      <c r="T33" s="10">
+        <v>2</v>
+      </c>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10">
+        <v>1</v>
+      </c>
+      <c r="X33" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
+        <v>2</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
+      <c r="K34" s="10">
+        <v>1</v>
+      </c>
+      <c r="L34" s="10">
+        <v>1</v>
+      </c>
+      <c r="M34" s="10">
+        <v>1</v>
+      </c>
+      <c r="N34" s="10">
+        <v>2</v>
+      </c>
+      <c r="O34" s="10">
+        <v>1</v>
+      </c>
+      <c r="P34" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>2</v>
+      </c>
+      <c r="R34" s="10">
+        <v>2</v>
+      </c>
+      <c r="S34" s="10">
+        <v>2</v>
+      </c>
+      <c r="T34" s="10">
+        <v>2</v>
+      </c>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10">
+        <v>1</v>
+      </c>
+      <c r="X34" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A35" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10">
+        <v>1</v>
+      </c>
+      <c r="M35" s="10">
+        <v>1</v>
+      </c>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10">
+        <v>1</v>
+      </c>
+      <c r="P35" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>1</v>
+      </c>
+      <c r="R35" s="10">
+        <v>2</v>
+      </c>
+      <c r="S35" s="10">
+        <v>2</v>
+      </c>
+      <c r="T35" s="10">
+        <v>2</v>
+      </c>
+      <c r="U35" s="10">
+        <v>1</v>
+      </c>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10">
+        <v>1</v>
+      </c>
+      <c r="X35" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF35" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="10">
+        <v>2</v>
+      </c>
+      <c r="F36" s="10">
+        <v>2</v>
+      </c>
+      <c r="G36" s="10">
+        <v>2</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
+      <c r="I36" s="10">
+        <v>3</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1</v>
+      </c>
+      <c r="K36" s="10">
+        <v>2</v>
+      </c>
+      <c r="L36" s="10">
+        <v>2</v>
+      </c>
+      <c r="M36" s="10">
+        <v>1</v>
+      </c>
+      <c r="N36" s="10">
+        <v>2</v>
+      </c>
+      <c r="O36" s="10">
+        <v>2</v>
+      </c>
+      <c r="P36" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>3</v>
+      </c>
+      <c r="R36" s="10">
+        <v>3</v>
+      </c>
+      <c r="S36" s="10">
+        <v>3</v>
+      </c>
+      <c r="T36" s="10">
+        <v>2</v>
+      </c>
+      <c r="U36" s="10">
+        <v>1</v>
+      </c>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10">
+        <v>1</v>
+      </c>
+      <c r="X36" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF36" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A37" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>2</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10">
+        <v>3</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10">
+        <v>1</v>
+      </c>
+      <c r="L37" s="10">
+        <v>2</v>
+      </c>
+      <c r="M37" s="10">
+        <v>1</v>
+      </c>
+      <c r="N37" s="10">
+        <v>1</v>
+      </c>
+      <c r="O37" s="10">
+        <v>2</v>
+      </c>
+      <c r="P37" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>3</v>
+      </c>
+      <c r="R37" s="10">
+        <v>3</v>
+      </c>
+      <c r="S37" s="10">
+        <v>3</v>
+      </c>
+      <c r="T37" s="10">
+        <v>2</v>
+      </c>
+      <c r="U37" s="10">
+        <v>1</v>
+      </c>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10">
+        <v>1</v>
+      </c>
+      <c r="X37" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF37" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A38" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <v>3</v>
+      </c>
+      <c r="G38" s="10">
+        <v>2</v>
+      </c>
+      <c r="H38" s="10">
+        <v>2</v>
+      </c>
+      <c r="I38" s="10">
+        <v>3</v>
+      </c>
+      <c r="J38" s="10">
+        <v>1</v>
+      </c>
+      <c r="K38" s="10">
+        <v>3</v>
+      </c>
+      <c r="L38" s="10">
+        <v>1</v>
+      </c>
+      <c r="M38" s="10">
+        <v>2</v>
+      </c>
+      <c r="N38" s="10">
+        <v>2</v>
+      </c>
+      <c r="O38" s="10">
+        <v>2</v>
+      </c>
+      <c r="P38" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>2</v>
+      </c>
+      <c r="R38" s="10">
+        <v>2</v>
+      </c>
+      <c r="S38" s="10">
+        <v>2</v>
+      </c>
+      <c r="T38" s="10">
+        <v>2</v>
+      </c>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10">
+        <v>1</v>
+      </c>
+      <c r="X38" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A39" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10">
+        <v>3</v>
+      </c>
+      <c r="G39" s="10">
+        <v>2</v>
+      </c>
+      <c r="H39" s="10">
+        <v>2</v>
+      </c>
+      <c r="I39" s="10">
+        <v>3</v>
+      </c>
+      <c r="J39" s="10">
+        <v>1</v>
+      </c>
+      <c r="K39" s="10">
+        <v>3</v>
+      </c>
+      <c r="L39" s="10">
+        <v>1</v>
+      </c>
+      <c r="M39" s="10">
+        <v>2</v>
+      </c>
+      <c r="N39" s="10">
+        <v>2</v>
+      </c>
+      <c r="O39" s="10">
+        <v>2</v>
+      </c>
+      <c r="P39" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>2</v>
+      </c>
+      <c r="R39" s="10">
+        <v>2</v>
+      </c>
+      <c r="S39" s="10">
+        <v>2</v>
+      </c>
+      <c r="T39" s="10">
+        <v>2</v>
+      </c>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10">
+        <v>1</v>
+      </c>
+      <c r="X39" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A40" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10">
+        <v>3</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>2</v>
+      </c>
+      <c r="R40" s="10">
+        <v>3</v>
+      </c>
+      <c r="S40" s="10">
+        <v>2</v>
+      </c>
+      <c r="T40" s="10">
+        <v>2</v>
+      </c>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10">
+        <v>1</v>
+      </c>
+      <c r="X40" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AG41" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B80B36-F6BC-4B01-A567-114C459A8354}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB00936-8441-466A-907C-9798FC3B78B7}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>